--- a/src/main/resources/Register.xlsx
+++ b/src/main/resources/Register.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="76">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -35,12 +35,36 @@
     <t xml:space="preserve">RESULT</t>
   </si>
   <si>
-    <t xml:space="preserve">To Test Register first page</t>
+    <t xml:space="preserve">To Test Registration on first page with valid details</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
+    <t xml:space="preserve">Validate blank first name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate blank last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate blank emailid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate blank password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate blank phone no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate password and confirm password are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate if password and confirm password are same</t>
+  </si>
+  <si>
     <t xml:space="preserve">DESCRIPTION</t>
   </si>
   <si>
@@ -104,9 +128,6 @@
     <t xml:space="preserve">Enter_url</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ui.bldmn24.com/login</t>
-  </si>
-  <si>
     <t xml:space="preserve">click on register link</t>
   </si>
   <si>
@@ -119,28 +140,115 @@
     <t xml:space="preserve">Click_indiReg_link</t>
   </si>
   <si>
+    <t xml:space="preserve">enter all the details correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter_Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashudeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li2@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on register button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click_registerbtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the thankyou message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thankyoumsg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank You!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the text after thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TextAfterThankYou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please check your email for further instructions on how to proceed with your Moneynetint Ltd account application process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CloseBrowser</t>
+  </si>
+  <si>
     <t xml:space="preserve">enter the details</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ashudeep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devari</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">ashu@test.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Test@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CloseBrowser</t>
+    <t xml:space="preserve">Valid first name is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate blank Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Last name is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate blank email id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid email is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid passwords is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid mobile no. is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate email and confirm email are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If same email and confirm email are not entered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm_email_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lost2@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lost@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm email must be same as email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open@test.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lost@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm password must be same as password.</t>
   </si>
 </sst>
 </file>
@@ -150,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -173,6 +281,13 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -180,12 +295,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,8 +343,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,7 +356,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,6 +377,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -256,17 +445,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,6 +482,83 @@
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -310,26 +577,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3520408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3520408163265"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,185 +607,183 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>9673626391</v>
@@ -526,19 +794,968 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="N8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="N9" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>9673626391</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>9673626391</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>9673626391</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>9673626391</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>9673626391</v>
+      </c>
+      <c r="N45" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>9673626391</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="ashu@test.com"/>
-    <hyperlink ref="H6" r:id="rId2" display="ashu@test.com"/>
+    <hyperlink ref="G6" r:id="rId1" display="li2@test.com"/>
+    <hyperlink ref="H6" r:id="rId2" display="li2@test.com"/>
     <hyperlink ref="I6" r:id="rId3" display="Test@123"/>
     <hyperlink ref="J6" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="G8" r:id="rId5" display="li@test.com"/>
+    <hyperlink ref="G15" r:id="rId6" display="ashu@test.com"/>
+    <hyperlink ref="H15" r:id="rId7" display="ashu@test.com"/>
+    <hyperlink ref="I15" r:id="rId8" display="Test@123"/>
+    <hyperlink ref="J15" r:id="rId9" display="Test@123"/>
+    <hyperlink ref="G21" r:id="rId10" display="ashu@test.com"/>
+    <hyperlink ref="H21" r:id="rId11" display="ashu@test.com"/>
+    <hyperlink ref="I21" r:id="rId12" display="Test@123"/>
+    <hyperlink ref="J21" r:id="rId13" display="Test@123"/>
+    <hyperlink ref="H27" r:id="rId14" display="ashu@test.com"/>
+    <hyperlink ref="I27" r:id="rId15" display="Test@123"/>
+    <hyperlink ref="J27" r:id="rId16" display="Test@123"/>
+    <hyperlink ref="G33" r:id="rId17" display="ashu@test.com"/>
+    <hyperlink ref="H33" r:id="rId18" display="ashu@test.com"/>
+    <hyperlink ref="J33" r:id="rId19" display="Test@123"/>
+    <hyperlink ref="G39" r:id="rId20" display="ashu@test.com"/>
+    <hyperlink ref="H39" r:id="rId21" display="ashu@test.com"/>
+    <hyperlink ref="I39" r:id="rId22" display="Test@123"/>
+    <hyperlink ref="J39" r:id="rId23" display="Test@123"/>
+    <hyperlink ref="G45" r:id="rId24" display="lost2@test.com"/>
+    <hyperlink ref="H45" r:id="rId25" display="lost@test.com"/>
+    <hyperlink ref="I45" r:id="rId26" display="Test@123"/>
+    <hyperlink ref="J45" r:id="rId27" display="Test@123"/>
+    <hyperlink ref="G52" r:id="rId28" display="open@test.com"/>
+    <hyperlink ref="H52" r:id="rId29" display="open@test.com"/>
+    <hyperlink ref="I52" r:id="rId30" display="Test@123"/>
+    <hyperlink ref="J52" r:id="rId31" display="lost@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
